--- a/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_latest_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_latest_since_2022_GVA.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08185264821564124</v>
+        <v>0.07460170201535693</v>
       </c>
       <c r="C2">
-        <v>0.4498890655930845</v>
+        <v>0.4066704939480233</v>
       </c>
       <c r="D2">
-        <v>0.2503390687079732</v>
+        <v>0.2229059984459623</v>
       </c>
       <c r="E2">
-        <v>0.5003389538182822</v>
+        <v>0.472129217954113</v>
       </c>
       <c r="F2">
-        <v>0.5122310910000888</v>
+        <v>0.4825607857740096</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3415340448042867</v>
+        <v>0.314504379002312</v>
       </c>
       <c r="C3">
-        <v>0.5283638768796279</v>
+        <v>0.4790566883332484</v>
       </c>
       <c r="D3">
-        <v>0.3956770044253315</v>
+        <v>0.3549208902847111</v>
       </c>
       <c r="E3">
-        <v>0.6290286197187943</v>
+        <v>0.5957523732933937</v>
       </c>
       <c r="F3">
-        <v>0.5498037156298308</v>
+        <v>0.5250721856764178</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4991142954903503</v>
+        <v>0.4632337633744819</v>
       </c>
       <c r="C4">
-        <v>0.6250203547242279</v>
+        <v>0.5692069213481521</v>
       </c>
       <c r="D4">
-        <v>0.5354724008156625</v>
+        <v>0.4862027082318384</v>
       </c>
       <c r="E4">
-        <v>0.7317597972119421</v>
+        <v>0.6972823733838669</v>
       </c>
       <c r="F4">
-        <v>0.5589184238927249</v>
+        <v>0.5424499556889087</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6659010194820051</v>
+        <v>0.6092340853067807</v>
       </c>
       <c r="C5">
-        <v>0.7481293958759639</v>
+        <v>0.6750741196220317</v>
       </c>
       <c r="D5">
-        <v>0.7002465674035019</v>
+        <v>0.6306383360763419</v>
       </c>
       <c r="E5">
-        <v>0.8368073657679537</v>
+        <v>0.7941274054434476</v>
       </c>
       <c r="F5">
-        <v>0.5315116552080125</v>
+        <v>0.5320343448005646</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6700919919200349</v>
+        <v>0.638688239432181</v>
       </c>
       <c r="C6">
-        <v>0.7756405683410319</v>
+        <v>0.7242386063103117</v>
       </c>
       <c r="D6">
-        <v>0.8017107106836544</v>
+        <v>0.7271270905885431</v>
       </c>
       <c r="E6">
-        <v>0.8953829966464933</v>
+        <v>0.8527174740724756</v>
       </c>
       <c r="F6">
-        <v>0.625999141859808</v>
+        <v>0.5925579007485432</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5533131480513629</v>
+        <v>0.5167424503166</v>
       </c>
       <c r="C7">
-        <v>0.685331683436296</v>
+        <v>0.6241159593079864</v>
       </c>
       <c r="D7">
-        <v>0.611662075050088</v>
+        <v>0.538927811949409</v>
       </c>
       <c r="E7">
-        <v>0.7820882782973338</v>
+        <v>0.7341170287831559</v>
       </c>
       <c r="F7">
-        <v>0.5862550337941891</v>
+        <v>0.5496514572286344</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3928270014513826</v>
+        <v>0.370868480679851</v>
       </c>
       <c r="C8">
-        <v>0.573293682737623</v>
+        <v>0.5185686719842275</v>
       </c>
       <c r="D8">
-        <v>0.4161330143404206</v>
+        <v>0.3627064250084273</v>
       </c>
       <c r="E8">
-        <v>0.6450837266126163</v>
+        <v>0.6022511311806955</v>
       </c>
       <c r="F8">
-        <v>0.5470126258883778</v>
+        <v>0.5032974959479504</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3421687273478197</v>
+        <v>0.2966541511547854</v>
       </c>
       <c r="C9">
-        <v>0.5679026503586408</v>
+        <v>0.4816046978711712</v>
       </c>
       <c r="D9">
-        <v>0.3287960117692193</v>
+        <v>0.2612550586842152</v>
       </c>
       <c r="E9">
-        <v>0.5734073698246468</v>
+        <v>0.5111311560492231</v>
       </c>
       <c r="F9">
-        <v>0.5144372821277545</v>
+        <v>0.4559623317163587</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6652508539881011</v>
+        <v>0.4961513153058069</v>
       </c>
       <c r="C10">
-        <v>0.6652508539881011</v>
+        <v>0.4961513153058069</v>
       </c>
       <c r="D10">
-        <v>0.4634860339309165</v>
+        <v>0.3214734301341839</v>
       </c>
       <c r="E10">
-        <v>0.6807980860217782</v>
+        <v>0.5669862697933556</v>
       </c>
       <c r="F10">
-        <v>0.2045841401429673</v>
+        <v>0.3360966433657923</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
